--- a/Group 5 Iteration 1/Plan Iteration 1.xlsx
+++ b/Group 5 Iteration 1/Plan Iteration 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineering\Desktop\Malefiz Group Project\Iteration 0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C17A514-1749-4AA4-9DD6-9A22F0D78242}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E5026D-A774-4695-A12B-626397035C67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35820" yWindow="105" windowWidth="14400" windowHeight="7545" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action Plan" sheetId="1" r:id="rId1"/>
@@ -159,10 +159,10 @@
     <t xml:space="preserve">      Jan 26th</t>
   </si>
   <si>
-    <t>Not Assigned</t>
-  </si>
-  <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Sanuda, Tomal</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -1040,7 +1040,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -1062,7 +1062,7 @@
         <v>30</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
